--- a/文档/数据库表格.xlsx
+++ b/文档/数据库表格.xlsx
@@ -76,371 +76,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户类别(0-管理员、1-学生、2-老师)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user_Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_IsDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Durations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除用户（0：否，1是）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加(修改、删除)用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_IsDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_IsDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常，1：锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程时间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球台表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooker_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约球台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snookers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场地Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加(修改、删除)用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球台编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加(修改、删除)用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooker_Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格(单位:元/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooker_IsDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开单(0：false，1：true)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_StartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_StartTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_IsBilling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservation_Snooker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reservations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_IsDel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooker_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snookers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooked_Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooked_Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snooker_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Durations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration_Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程节数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除用户（0：否，1是）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加(修改、删除)用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration_IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration_EndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常，1：锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程时间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>球台表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooker_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约球台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snookers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场地Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加(修改、删除)用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>球台编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加(修改、删除)用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooker_Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格(单位:元/h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooker_IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否开单(0：false，1：true)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration_StartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration_User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_StartTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_EndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_IsBilling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservation_Snooker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reservations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space_User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>space_IsDel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooker_Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snookers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooked_Space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooked_Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snooker_User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
+    <t>用户类别(0-管理员、1-学生、2-老师、4-校外人员)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,14 +792,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="3" max="3" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -872,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -883,13 +883,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -900,61 +900,61 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -965,440 +965,440 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
         <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>49</v>
-      </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
         <v>25</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
         <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" t="s">
         <v>69</v>
-      </c>
-      <c r="H37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
         <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
         <v>32</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
